--- a/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4444</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002085</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -580,150 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006199</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛同锦研究精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0571</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001892</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,13 +909,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,36 +966,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.4444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1072,104 +1004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>81.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0787</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1042,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300853-申昊科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.86</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003300</t>
+          <t>003396</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合A</t>
+          <t>东方红优享红利混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.31</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0471</t>
+          <t>0.4144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>东方红京东大数据灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>75.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.2649</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015068</t>
+          <t>017535</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合C</t>
+          <t>东方红京东大数据灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.31</t>
+          <t>75.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -719,36 +734,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>017536</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>东方红优享红利混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -757,6 +770,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,7 +1355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
